--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UDEA-MAESTRIA\Proyecto\Resultados\Sujetos Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UDEA-MAESTRIA\Thesis result\Data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Daniela Alejandra Ortega Rosero:</t>
         </r>
@@ -52,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dos factores, ambos discriminan igual </t>
@@ -67,7 +67,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Daniela Alejandra Ortega Rosero:</t>
         </r>
@@ -76,7 +76,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dos factor igual conclusion </t>
@@ -91,7 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Daniela Alejandra Ortega Rosero:</t>
         </r>
@@ -100,7 +100,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">resultado del segundo factor </t>
         </r>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="180">
   <si>
     <t>7:00 a 8:00</t>
   </si>
@@ -712,14 +712,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -756,7 +756,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,6 +814,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1056,28 +1068,17 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,10 +1099,31 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1125,9 +1147,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1718,7 +1738,7 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1850,7 +1870,7 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1991,7 +2011,7 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2155,7 @@
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2419,7 +2439,7 @@
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2563,7 +2583,7 @@
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2704,7 +2724,7 @@
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2848,7 +2868,7 @@
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2989,7 +3009,7 @@
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="50">
         <v>43555</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3132,7 +3152,7 @@
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
@@ -3276,7 +3296,7 @@
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="50">
         <v>43561</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3419,7 +3439,7 @@
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
@@ -3563,7 +3583,7 @@
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -3707,7 +3727,7 @@
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -3845,7 +3865,7 @@
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3986,7 +4006,7 @@
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4127,7 +4147,7 @@
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
@@ -5275,7 +5295,7 @@
       <c r="A2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="50">
         <v>43548</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5346,7 +5366,7 @@
       <c r="A3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -5401,7 +5421,7 @@
       <c r="A4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -5452,7 +5472,7 @@
       <c r="A5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -5506,7 +5526,7 @@
       <c r="A6" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -5557,7 +5577,7 @@
       <c r="A7" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -5608,7 +5628,7 @@
       <c r="A8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5656,7 +5676,7 @@
       <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="44">
         <v>0.25</v>
       </c>
@@ -5987,26 +6007,26 @@
       <c r="B1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="57" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="54" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="56"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="61"/>
@@ -6050,7 +6070,7 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="57" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -6091,7 +6111,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="38" t="s">
         <v>133</v>
       </c>
@@ -6133,7 +6153,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="38" t="s">
         <v>134</v>
       </c>
@@ -6171,7 +6191,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="41" t="s">
         <v>135</v>
       </c>
@@ -6195,7 +6215,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="57" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="38" t="s">
@@ -6233,7 +6253,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="38" t="s">
         <v>133</v>
       </c>
@@ -6275,7 +6295,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="38" t="s">
         <v>134</v>
       </c>
@@ -6313,7 +6333,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="41" t="s">
         <v>135</v>
       </c>
@@ -6337,7 +6357,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="57" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -6375,7 +6395,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="38" t="s">
         <v>133</v>
       </c>
@@ -6411,7 +6431,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="38" t="s">
         <v>134</v>
       </c>
@@ -6447,7 +6467,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="41" t="s">
         <v>135</v>
       </c>
@@ -6471,7 +6491,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="63" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -6511,7 +6531,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="39" t="s">
         <v>133</v>
       </c>
@@ -6547,7 +6567,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="38" t="s">
         <v>134</v>
       </c>
@@ -6587,7 +6607,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="41" t="s">
         <v>135</v>
       </c>
@@ -6611,7 +6631,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="63" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -6649,7 +6669,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="38" t="s">
         <v>133</v>
       </c>
@@ -6689,7 +6709,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="38" t="s">
         <v>134</v>
       </c>
@@ -6725,7 +6745,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="41" t="s">
         <v>135</v>
       </c>
@@ -6749,7 +6769,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="57" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -6793,7 +6813,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="38" t="s">
         <v>133</v>
       </c>
@@ -6829,7 +6849,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="38" t="s">
         <v>134</v>
       </c>
@@ -6867,7 +6887,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="41" t="s">
         <v>135</v>
       </c>
@@ -6891,7 +6911,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="57" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -6929,7 +6949,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="38" t="s">
         <v>133</v>
       </c>
@@ -6965,7 +6985,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="38" t="s">
         <v>134</v>
       </c>
@@ -7001,7 +7021,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="41" t="s">
         <v>135</v>
       </c>
@@ -7025,7 +7045,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="57" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="38" t="s">
@@ -7067,7 +7087,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="38" t="s">
         <v>133</v>
       </c>
@@ -7103,7 +7123,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="38" t="s">
         <v>134</v>
       </c>
@@ -7139,7 +7159,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="41" t="s">
         <v>135</v>
       </c>
@@ -7163,7 +7183,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="62" t="s">
         <v>142</v>
       </c>
       <c r="B35" s="38" t="s">
@@ -7207,7 +7227,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="38" t="s">
         <v>133</v>
       </c>
@@ -7243,7 +7263,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="38" t="s">
         <v>134</v>
       </c>
@@ -7285,7 +7305,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="41" t="s">
         <v>135</v>
       </c>
@@ -8570,6 +8590,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A3:A6"/>
@@ -8578,13 +8605,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -8672,7 +8692,7 @@
       <c r="AT1" s="1"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -8690,7 +8710,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
@@ -8706,7 +8726,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="27" t="s">
         <v>111</v>
       </c>
@@ -8722,7 +8742,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -8734,7 +8754,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="70" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -8752,7 +8772,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="21" t="s">
         <v>109</v>
       </c>
@@ -8768,7 +8788,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
@@ -8786,7 +8806,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
@@ -8798,7 +8818,7 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="67" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -8816,7 +8836,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="27" t="s">
         <v>109</v>
       </c>
@@ -8834,7 +8854,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="27" t="s">
         <v>111</v>
       </c>
@@ -8850,7 +8870,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="27" t="s">
         <v>112</v>
       </c>
@@ -8862,7 +8882,7 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="67" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -8882,7 +8902,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="27" t="s">
         <v>109</v>
       </c>
@@ -8898,7 +8918,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="27" t="s">
         <v>111</v>
       </c>
@@ -8916,7 +8936,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
@@ -8928,7 +8948,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="67" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -8946,7 +8966,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -8962,7 +8982,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
@@ -8978,7 +8998,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
@@ -8990,7 +9010,7 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="67" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -9010,7 +9030,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -9027,7 +9047,7 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -9043,7 +9063,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="27" t="s">
         <v>112</v>
       </c>
@@ -9055,7 +9075,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="66" t="s">
         <v>117</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -9075,7 +9095,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
@@ -9091,7 +9111,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="27" t="s">
         <v>111</v>
       </c>
@@ -9109,7 +9129,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
@@ -10072,7 +10092,7 @@
       <c r="AT1" s="1"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -10090,7 +10110,7 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
@@ -10106,7 +10126,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="27" t="s">
         <v>111</v>
       </c>
@@ -10122,7 +10142,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="27" t="s">
         <v>112</v>
       </c>
@@ -10134,7 +10154,7 @@
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="70" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10152,7 +10172,7 @@
       </c>
     </row>
     <row r="7" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="21" t="s">
         <v>109</v>
       </c>
@@ -10168,7 +10188,7 @@
       </c>
     </row>
     <row r="8" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="21" t="s">
         <v>111</v>
       </c>
@@ -10184,7 +10204,7 @@
       </c>
     </row>
     <row r="9" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="21" t="s">
         <v>112</v>
       </c>
@@ -10196,7 +10216,7 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="67" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -10214,7 +10234,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="27" t="s">
         <v>109</v>
       </c>
@@ -10230,7 +10250,7 @@
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="27" t="s">
         <v>111</v>
       </c>
@@ -10246,7 +10266,7 @@
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="27" t="s">
         <v>112</v>
       </c>
@@ -10258,7 +10278,7 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="67" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -10278,7 +10298,7 @@
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="27" t="s">
         <v>109</v>
       </c>
@@ -10294,7 +10314,7 @@
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="27" t="s">
         <v>111</v>
       </c>
@@ -10310,7 +10330,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="27" t="s">
         <v>112</v>
       </c>
@@ -10322,7 +10342,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="67" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -10340,7 +10360,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
@@ -10356,7 +10376,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="27" t="s">
         <v>111</v>
       </c>
@@ -10372,7 +10392,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="27" t="s">
         <v>112</v>
       </c>
@@ -10384,7 +10404,7 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="67" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -10404,7 +10424,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="27" t="s">
         <v>109</v>
       </c>
@@ -10421,7 +10441,7 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
@@ -10437,7 +10457,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="27" t="s">
         <v>112</v>
       </c>
@@ -10449,7 +10469,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="66" t="s">
         <v>117</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -10469,7 +10489,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="27" t="s">
         <v>109</v>
       </c>
@@ -10485,7 +10505,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="27" t="s">
         <v>111</v>
       </c>
@@ -10503,7 +10523,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="27" t="s">
         <v>112</v>
       </c>
@@ -12833,10 +12853,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="V59" sqref="V59"/>
+    <sheetView tabSelected="1" topLeftCell="X16" workbookViewId="0">
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12849,57 +12869,87 @@
     <col min="22" max="22" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="69">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>1</v>
-      </c>
-      <c r="V1" s="69">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48">
+        <v>0</v>
+      </c>
+      <c r="S1" s="47">
+        <v>1</v>
+      </c>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="48">
+        <v>0</v>
+      </c>
+      <c r="W1" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -12936,26 +12986,64 @@
       <c r="O2">
         <v>0.726472098984974</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="49">
         <v>1.86220951474776</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="47">
         <v>0.81370778248598996</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T2" s="47"/>
+      <c r="U2" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="49">
         <v>2.8067636130000002</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="47">
         <v>0.80756780800000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2">
+        <v>-4.8081164814918704</v>
+      </c>
+      <c r="AA2">
+        <v>0.94675053283133903</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD2">
+        <v>1.7203277875930201</v>
+      </c>
+      <c r="AE2">
+        <v>0.83188837012649597</v>
+      </c>
+      <c r="AG2" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="73">
+        <v>-0.87922282934617701</v>
+      </c>
+      <c r="AI2" s="73">
+        <v>0.90839263320235397</v>
+      </c>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL2" s="73">
+        <v>1.3867299104409201</v>
+      </c>
+      <c r="AM2" s="73">
+        <v>0.80977579789915699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -12992,26 +13080,64 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="49">
         <v>0.89811059547467198</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="S3" s="47">
+        <v>1</v>
+      </c>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="49">
         <v>1.299721817</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="47">
         <v>0.99948631300000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3">
+        <v>0.71689222467471903</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD3">
+        <v>0.68710560327925396</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="73">
+        <v>1.33982117549118</v>
+      </c>
+      <c r="AI3" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL3" s="73">
+        <v>0.49252827377441</v>
+      </c>
+      <c r="AM3" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -13048,26 +13174,64 @@
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="49">
         <v>1.51065215005929</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="S4" s="47">
+        <v>1</v>
+      </c>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="49">
         <v>-9.7133005999999994E-2</v>
       </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4">
+        <v>-1.0030299228203601</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD4">
+        <v>0.911275660605259</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH4" s="73">
+        <v>5.9644527066631996E-3</v>
+      </c>
+      <c r="AI4" s="73">
+        <v>0.75611659951898003</v>
+      </c>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL4" s="73">
+        <v>1.0549081370815501</v>
+      </c>
+      <c r="AM4" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -13104,26 +13268,64 @@
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="49">
         <v>0.72124798236200305</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="S5" s="47">
+        <v>1</v>
+      </c>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="49">
         <v>0.98408106900000003</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W5" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5">
+        <v>-1.8505955944711101</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD5">
+        <v>0.319758645751124</v>
+      </c>
+      <c r="AE5">
+        <v>0.77703746407503504</v>
+      </c>
+      <c r="AG5" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH5" s="73">
+        <v>0.24349971082706401</v>
+      </c>
+      <c r="AI5" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL5" s="73">
+        <v>0.53441202111927999</v>
+      </c>
+      <c r="AM5" s="73">
+        <v>0.71715946758176596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -13160,26 +13362,64 @@
       <c r="O6">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="49">
         <v>0.99189793374550295</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="S6" s="47">
+        <v>1</v>
+      </c>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="49">
         <v>1.434871</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="47">
         <v>0.74496269999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6">
+        <v>-6.8285428019897996</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD6">
+        <v>1.5122318563747099</v>
+      </c>
+      <c r="AE6">
+        <v>0.897395275086045</v>
+      </c>
+      <c r="AG6" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH6" s="73">
+        <v>0.82233217331892305</v>
+      </c>
+      <c r="AI6" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL6" s="73">
+        <v>1.3928005966504</v>
+      </c>
+      <c r="AM6" s="73">
+        <v>0.99575698900729304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -13216,26 +13456,64 @@
       <c r="O7">
         <v>0.71378549440755601</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="49">
         <v>0.87558200605897496</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="S7" s="47">
+        <v>1</v>
+      </c>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="49">
         <v>1.7831659630000001</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="47">
         <v>0.86272015199999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7">
+        <v>1.6543510546374101</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD7">
+        <v>0.110318195540551</v>
+      </c>
+      <c r="AE7">
+        <v>0.98303163079723199</v>
+      </c>
+      <c r="AG7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH7" s="73">
+        <v>2.0413185860429599</v>
+      </c>
+      <c r="AI7" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL7" s="73">
+        <v>0.59153033338925998</v>
+      </c>
+      <c r="AM7" s="73">
+        <v>0.98889469207479097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -13272,26 +13550,64 @@
       <c r="O8">
         <v>0.94948343933011803</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="49">
         <v>0.57398942975238099</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="47">
         <v>0.95105526891099801</v>
       </c>
-      <c r="U8" t="s">
+      <c r="T8" s="47"/>
+      <c r="U8" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="49">
         <v>1.4248096649999999</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="47">
         <v>0.846010649</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8">
+        <v>0.292201171769924</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD8">
+        <v>0.81776512429987402</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH8" s="73">
+        <v>1.4980151395808501</v>
+      </c>
+      <c r="AI8" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL8" s="73">
+        <v>0.95953563693029298</v>
+      </c>
+      <c r="AM8" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -13328,26 +13644,64 @@
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="49">
         <v>1.49635438710472</v>
       </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="S9" s="47">
+        <v>1</v>
+      </c>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="49">
         <v>1.473020204</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="47">
         <v>0.776416412</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9">
+        <v>1.96711910256846</v>
+      </c>
+      <c r="AA9">
+        <v>0.80199784434661303</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD9">
+        <v>1.7968689721710001</v>
+      </c>
+      <c r="AE9">
+        <v>0.85735744621007104</v>
+      </c>
+      <c r="AG9" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH9" s="73">
+        <v>1.48949905168243</v>
+      </c>
+      <c r="AI9" s="73">
+        <v>0.815730348288491</v>
+      </c>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL9" s="73">
+        <v>1.3808669341112001</v>
+      </c>
+      <c r="AM9" s="73">
+        <v>0.92490863515772204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -13384,26 +13738,64 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="49">
         <v>4.7467614746164699</v>
       </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="S10" s="47">
+        <v>1</v>
+      </c>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="49">
         <v>2.0820122940000001</v>
       </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10">
+        <v>0.54007997387972495</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD10">
+        <v>2.3505949598398099</v>
+      </c>
+      <c r="AE10">
+        <v>0.91402681132937003</v>
+      </c>
+      <c r="AG10" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH10" s="73">
+        <v>0.94191523876802696</v>
+      </c>
+      <c r="AI10" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL10" s="73">
+        <v>1.5350258910419901</v>
+      </c>
+      <c r="AM10" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -13440,26 +13832,64 @@
       <c r="O11">
         <v>0.96238567130823305</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="49">
         <v>2.18140370174322</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="S11" s="47">
+        <v>1</v>
+      </c>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="49">
         <v>1.8175884959999999</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="47">
         <v>0.85619337600000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11">
+        <v>1.41547290081104</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD11">
+        <v>2.24874968696118</v>
+      </c>
+      <c r="AE11">
+        <v>0.82229164706029001</v>
+      </c>
+      <c r="AG11" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH11" s="73">
+        <v>1.2925783201336201</v>
+      </c>
+      <c r="AI11" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL11" s="73">
+        <v>1.7749733935152501</v>
+      </c>
+      <c r="AM11" s="73">
+        <v>0.810746116511735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -13496,26 +13926,64 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="49">
         <v>0.92343147354176502</v>
       </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="S12" s="47">
+        <v>1</v>
+      </c>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="49">
         <v>1.5470341460000001</v>
       </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12">
+        <v>0.75451750512827198</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD12">
+        <v>1.8493106141311499</v>
+      </c>
+      <c r="AE12">
+        <v>0.92002439782282996</v>
+      </c>
+      <c r="AG12" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH12" s="73">
+        <v>0.96586011181942</v>
+      </c>
+      <c r="AI12" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL12" s="73">
+        <v>1.2460183472301301</v>
+      </c>
+      <c r="AM12" s="73">
+        <v>0.88817068145109801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -13552,26 +14020,64 @@
       <c r="O13">
         <v>0.95304397167032195</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="49">
         <v>2.07710966683945</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="47">
         <v>0.759456409690071</v>
       </c>
-      <c r="U13" t="s">
+      <c r="T13" s="47"/>
+      <c r="U13" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="49">
         <v>1.4641665180000001</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="47">
         <v>0.70915506299999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13">
+        <v>1.7216674095214599</v>
+      </c>
+      <c r="AA13">
+        <v>0.82715909765725804</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD13">
+        <v>1.43736016372664</v>
+      </c>
+      <c r="AE13">
+        <v>0.97946522964008498</v>
+      </c>
+      <c r="AG13" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH13" s="73">
+        <v>1.4025220798256799</v>
+      </c>
+      <c r="AI13" s="73">
+        <v>0.91146215679036502</v>
+      </c>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL13" s="73">
+        <v>1.69786316399293</v>
+      </c>
+      <c r="AM13" s="73">
+        <v>0.94500975461024705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -13608,26 +14114,64 @@
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="49">
         <v>1.4734590633228799</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="47">
         <v>0.81683501338132303</v>
       </c>
-      <c r="U14" t="s">
+      <c r="T14" s="47"/>
+      <c r="U14" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="49">
         <v>1.5975406720000001</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="47">
         <v>0.79621767099999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14">
+        <v>1.6521263670108699</v>
+      </c>
+      <c r="AA14">
+        <v>0.83596341610142499</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD14">
+        <v>1.57175417031579</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH14" s="73">
+        <v>1.4199462574780399</v>
+      </c>
+      <c r="AI14" s="73">
+        <v>0.83660214017950796</v>
+      </c>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL14" s="73">
+        <v>1.39470364169953</v>
+      </c>
+      <c r="AM14" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -13646,17 +14190,43 @@
       <c r="K15">
         <v>0.89576901280931698</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="49">
         <v>1.3519780651473401</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S15" s="47">
+        <v>1</v>
+      </c>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="47"/>
+      <c r="Y15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z15">
+        <v>1.80666221063759</v>
+      </c>
+      <c r="AA15">
+        <v>0.94580007230354302</v>
+      </c>
+      <c r="AG15" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH15" s="73">
+        <v>2.1465580109275799</v>
+      </c>
+      <c r="AI15" s="73">
+        <v>0.99104249120643195</v>
+      </c>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="73"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -13675,17 +14245,43 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="49">
         <v>2.2339912511981899</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="47">
         <v>0.76147734913929799</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="47"/>
+      <c r="Y16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z16">
+        <v>1.72574951515384</v>
+      </c>
+      <c r="AA16">
+        <v>0.79346146913224302</v>
+      </c>
+      <c r="AG16" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH16" s="73">
+        <v>1.33172290142955</v>
+      </c>
+      <c r="AI16" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>179</v>
       </c>
@@ -13704,20 +14300,50 @@
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="R17" s="5">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="V17" s="5">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q17" s="47"/>
+      <c r="R17" s="49">
+        <v>0</v>
+      </c>
+      <c r="S17" s="47">
+        <v>1</v>
+      </c>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="49">
+        <v>0</v>
+      </c>
+      <c r="W17" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="73">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -13754,26 +14380,64 @@
       <c r="O18">
         <v>1</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="49">
         <v>1.5656242650000001</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="S18" s="47">
+        <v>1</v>
+      </c>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="49">
         <v>-2.2065234417650799</v>
       </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W18" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18">
+        <v>0.37085519823381602</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD18">
+        <v>1.8434971350502001</v>
+      </c>
+      <c r="AE18">
+        <v>0.78758143423144999</v>
+      </c>
+      <c r="AG18" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH18" s="73">
+        <v>-0.36430159232208997</v>
+      </c>
+      <c r="AI18" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL18" s="73">
+        <v>1.4018745250750899</v>
+      </c>
+      <c r="AM18" s="73">
+        <v>0.91864520358780799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
@@ -13810,26 +14474,64 @@
       <c r="O19">
         <v>1</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="49">
         <v>-8.3317907999999996E-2</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="S19" s="47">
+        <v>1</v>
+      </c>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="49">
         <v>1.9545382142094601</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="47">
         <v>0.78910420816737004</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z19">
+        <v>0.56386326317062596</v>
+      </c>
+      <c r="AA19">
+        <v>0.75909078760149595</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD19">
+        <v>0.62383673252307004</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH19" s="73">
+        <v>0.28297939300108599</v>
+      </c>
+      <c r="AI19" s="73">
+        <v>0.995174791484846</v>
+      </c>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL19" s="73">
+        <v>1.5125090948064901</v>
+      </c>
+      <c r="AM19" s="73">
+        <v>0.71072127867462198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -13866,26 +14568,64 @@
       <c r="O20">
         <v>0.95246983328694701</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="49">
         <v>1.335534526</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="47">
         <v>0.84832648899999996</v>
       </c>
-      <c r="U20" t="s">
+      <c r="T20" s="47"/>
+      <c r="U20" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="49">
         <v>0.72781848392190496</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="47">
         <v>0.90714907437470105</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z20">
+        <v>1.4491680244854399</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD20">
+        <v>2.3735466501129898</v>
+      </c>
+      <c r="AE20">
+        <v>0.99786355555267603</v>
+      </c>
+      <c r="AG20" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH20" s="73">
+        <v>1.3536400779215301</v>
+      </c>
+      <c r="AI20" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL20" s="73">
+        <v>1.6365387165271901</v>
+      </c>
+      <c r="AM20" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -13922,26 +14662,64 @@
       <c r="O21">
         <v>1</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="49">
         <v>1.3428889340000001</v>
       </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="S21" s="47">
+        <v>1</v>
+      </c>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="V21" s="5">
+      <c r="V21" s="49">
         <v>2.3228266769613599</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="47">
         <v>0.78669435279816502</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z21">
+        <v>-1.84296998707477</v>
+      </c>
+      <c r="AA21">
+        <v>0.74262564959623201</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD21">
+        <v>1.40000600229535</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH21" s="73">
+        <v>0.928603867464602</v>
+      </c>
+      <c r="AI21" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL21" s="73">
+        <v>1.4387615688153399</v>
+      </c>
+      <c r="AM21" s="73">
+        <v>0.92049091249457404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -13978,26 +14756,64 @@
       <c r="O22">
         <v>0.75588480432281102</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="49">
         <v>1.3955576700000001</v>
       </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="S22" s="47">
+        <v>1</v>
+      </c>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="49">
         <v>0.85035660058504603</v>
       </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W22" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z22">
+        <v>1.4161514172457399</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD22">
+        <v>1.5136999061596501</v>
+      </c>
+      <c r="AE22">
+        <v>0.72818046410986903</v>
+      </c>
+      <c r="AG22" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH22" s="73">
+        <v>1.2935188340342401</v>
+      </c>
+      <c r="AI22" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL22" s="73">
+        <v>1.5249250469856701</v>
+      </c>
+      <c r="AM22" s="73">
+        <v>0.71802512399219098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -14034,26 +14850,64 @@
       <c r="O23">
         <v>1</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="49">
         <v>0.64343183299999995</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="47">
         <v>0.99920869000000001</v>
       </c>
-      <c r="U23" t="s">
+      <c r="T23" s="47"/>
+      <c r="U23" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="49">
         <v>2.1715500837426802</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="47">
         <v>0.93611038665739399</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z23">
+        <v>1.84834137716049</v>
+      </c>
+      <c r="AA23">
+        <v>0.85000818194423</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD23">
+        <v>0.80914107001798197</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH23" s="73">
+        <v>1.61879496739576</v>
+      </c>
+      <c r="AI23" s="73">
+        <v>0.72522124671138</v>
+      </c>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL23" s="73">
+        <v>0.64188219986034201</v>
+      </c>
+      <c r="AM23" s="73">
+        <v>0.82789223924961197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -14090,26 +14944,64 @@
       <c r="O24">
         <v>0.83121701164490602</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="49">
         <v>0.770800284</v>
       </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="S24" s="47">
+        <v>1</v>
+      </c>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" s="49">
         <v>1.54309580487433</v>
       </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W24" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z24">
+        <v>1.5789446504462299</v>
+      </c>
+      <c r="AA24">
+        <v>0.76194271523103096</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD24">
+        <v>0.73520571080318997</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH24" s="73">
+        <v>3.1057828213380598</v>
+      </c>
+      <c r="AI24" s="73">
+        <v>0.76331649692031101</v>
+      </c>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL24" s="73">
+        <v>0.97941934931547503</v>
+      </c>
+      <c r="AM24" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -14146,26 +15038,64 @@
       <c r="O25">
         <v>1</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="49">
         <v>0.652717082</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="47">
         <v>0.94542729700000006</v>
       </c>
-      <c r="U25" t="s">
+      <c r="T25" s="47"/>
+      <c r="U25" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="V25" s="5">
+      <c r="V25" s="49">
         <v>1.51829625806104</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="47">
         <v>0.96623953188807399</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z25">
+        <v>2.9458621579236799</v>
+      </c>
+      <c r="AA25">
+        <v>0.99533093239364501</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD25">
+        <v>0.91807963835929696</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH25" s="73">
+        <v>0.74615282078399503</v>
+      </c>
+      <c r="AI25" s="73">
+        <v>0.983148914767485</v>
+      </c>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL25" s="73">
+        <v>0.95752245968827598</v>
+      </c>
+      <c r="AM25" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -14202,26 +15132,64 @@
       <c r="O26">
         <v>0.84968227348028802</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="49">
         <v>0.89949548300000004</v>
       </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="S26" s="47">
+        <v>1</v>
+      </c>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="49">
         <v>2.4786298088768</v>
       </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W26" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26">
+        <v>0.15257542819796799</v>
+      </c>
+      <c r="AA26">
+        <v>0.89956870577639803</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD26">
+        <v>0.79112161076239595</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH26" s="73">
+        <v>0.97252330678591004</v>
+      </c>
+      <c r="AI26" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL26" s="73">
+        <v>0.72536784085008199</v>
+      </c>
+      <c r="AM26" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -14258,26 +15226,64 @@
       <c r="O27">
         <v>0.92050933273240299</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="49">
         <v>1.3577502130000001</v>
       </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="U27" t="s">
+      <c r="S27" s="47">
+        <v>1</v>
+      </c>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V27" s="49">
         <v>1.4514412706345201</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="47">
         <v>0.88618389814846399</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z27">
+        <v>1.4407226863462299</v>
+      </c>
+      <c r="AA27">
+        <v>0.844028174568766</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD27">
+        <v>1.37582070188936</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH27" s="73">
+        <v>1.3149712310255499</v>
+      </c>
+      <c r="AI27" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL27" s="73">
+        <v>1.32282097989964</v>
+      </c>
+      <c r="AM27" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -14314,26 +15320,64 @@
       <c r="O28">
         <v>0.70558211600709897</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="49">
         <v>1.6099792100000001</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="47">
         <v>0.70860602500000003</v>
       </c>
-      <c r="U28" t="s">
+      <c r="T28" s="47"/>
+      <c r="U28" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28" s="49">
         <v>1.4417180033518</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="47">
         <v>0.98798326071195897</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z28">
+        <v>1.5711402113767701</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD28">
+        <v>1.6870064449736799</v>
+      </c>
+      <c r="AE28">
+        <v>0.90798709903910402</v>
+      </c>
+      <c r="AG28" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH28" s="73">
+        <v>1.3662478107631</v>
+      </c>
+      <c r="AI28" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL28" s="73">
+        <v>1.49228996265105</v>
+      </c>
+      <c r="AM28" s="73">
+        <v>0.90328913080423601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -14370,26 +15414,64 @@
       <c r="O29">
         <v>1</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="49">
         <v>1.328353162</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="47">
         <v>0.74343354299999997</v>
       </c>
-      <c r="U29" t="s">
+      <c r="T29" s="47"/>
+      <c r="U29" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29" s="49">
         <v>1.5669205444283401</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="47">
         <v>0.91759494786282503</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z29">
+        <v>1.4450882947014501</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD29">
+        <v>1.8258064541322701</v>
+      </c>
+      <c r="AE29">
+        <v>0.84240892426561798</v>
+      </c>
+      <c r="AG29" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH29" s="73">
+        <v>1.38915913255131</v>
+      </c>
+      <c r="AI29" s="73">
+        <v>0.73956647218133797</v>
+      </c>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL29" s="73">
+        <v>1.5209232570593201</v>
+      </c>
+      <c r="AM29" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -14426,26 +15508,64 @@
       <c r="O30">
         <v>0.97004951826710095</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="49">
         <v>0.93014408699999995</v>
       </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="S30" s="47">
+        <v>1</v>
+      </c>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30" s="49">
         <v>0.535577007517688</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="47">
         <v>0.79500501583404204</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z30">
+        <v>1.67203560885495</v>
+      </c>
+      <c r="AA30">
+        <v>0.80935887864018297</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD30">
+        <v>4.0847561345262497E-3</v>
+      </c>
+      <c r="AE30">
+        <v>0.92879663448625205</v>
+      </c>
+      <c r="AG30" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH30" s="73">
+        <v>1.62003729024661</v>
+      </c>
+      <c r="AI30" s="73">
+        <v>0.72923306702763202</v>
+      </c>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL30" s="73">
+        <v>0.60420509989342996</v>
+      </c>
+      <c r="AM30" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -14464,17 +15584,43 @@
       <c r="K31">
         <v>0.73829042319965898</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="49">
         <v>1.4853489310000001</v>
       </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S31" s="47">
+        <v>1</v>
+      </c>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="47"/>
+      <c r="Y31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z31">
+        <v>1.6726253057520999</v>
+      </c>
+      <c r="AA31">
+        <v>0.875994583889247</v>
+      </c>
+      <c r="AG31" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH31" s="73">
+        <v>1.20971483434242</v>
+      </c>
+      <c r="AI31" s="73">
+        <v>0.75956629649276697</v>
+      </c>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
@@ -14493,17 +15639,43 @@
       <c r="K32">
         <v>0.94160759060352694</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="49">
         <v>1.357326644</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="47">
         <v>0.83080442200000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="47"/>
+      <c r="Y32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z32">
+        <v>0.30568204482466299</v>
+      </c>
+      <c r="AA32">
+        <v>0.73397379384658901</v>
+      </c>
+      <c r="AG32" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH32" s="73">
+        <v>2.7440603777756798</v>
+      </c>
+      <c r="AI32" s="73">
+        <v>0.70422501741753296</v>
+      </c>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="73"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -14522,17 +15694,43 @@
       <c r="K33">
         <v>0.72994170838750505</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33" s="49">
         <v>1.482876831</v>
       </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S33" s="47">
+        <v>1</v>
+      </c>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="47"/>
+      <c r="Y33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z33">
+        <v>1.69766137064343</v>
+      </c>
+      <c r="AA33">
+        <v>0.87467182900087803</v>
+      </c>
+      <c r="AG33" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH33" s="73">
+        <v>0.77091035891266602</v>
+      </c>
+      <c r="AI33" s="73">
+        <v>0.74703791787047202</v>
+      </c>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="73"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="73"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -14551,20 +15749,48 @@
       <c r="O34">
         <v>1</v>
       </c>
-      <c r="R34" s="5">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="V34" s="5">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q34" s="47"/>
+      <c r="R34" s="49">
+        <v>0</v>
+      </c>
+      <c r="S34" s="47">
+        <v>1</v>
+      </c>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="49">
+        <v>0</v>
+      </c>
+      <c r="W34" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH34" s="73">
+        <v>1.52076852299343</v>
+      </c>
+      <c r="AI34" s="73">
+        <v>0.71327872848742602</v>
+      </c>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="73"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
@@ -14601,26 +15827,60 @@
       <c r="O35">
         <v>0.84370849004188297</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="49">
         <v>1.4124413790694501</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="47">
         <v>0.92098197991068398</v>
       </c>
-      <c r="U35" t="s">
+      <c r="T35" s="47"/>
+      <c r="U35" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="V35" s="5">
+      <c r="V35" s="49">
         <v>-7.0790764000000006E-2</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="47">
         <v>0.73676742299999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z35">
+        <v>0.481007314129477</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD35">
+        <v>1.46108954304653</v>
+      </c>
+      <c r="AE35">
+        <v>0.88388740932977305</v>
+      </c>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="73">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="73"/>
+      <c r="AK35" s="73"/>
+      <c r="AL35" s="73">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
@@ -14657,26 +15917,64 @@
       <c r="O36">
         <v>1</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="49">
         <v>1.36265146152839</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="47">
         <v>0.80268564243551799</v>
       </c>
-      <c r="U36" t="s">
+      <c r="T36" s="47"/>
+      <c r="U36" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="V36" s="5">
+      <c r="V36" s="49">
         <v>1.5817589089999999</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="47">
         <v>0.97158903699999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y36" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z36">
+        <v>1.7124982672406299</v>
+      </c>
+      <c r="AA36">
+        <v>0.86205731570019495</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD36">
+        <v>2.3694483735696501</v>
+      </c>
+      <c r="AE36">
+        <v>0.70902915774352104</v>
+      </c>
+      <c r="AG36" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH36" s="73">
+        <v>0.86025081674326698</v>
+      </c>
+      <c r="AI36" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="73"/>
+      <c r="AK36" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL36" s="73">
+        <v>1.32858841956327</v>
+      </c>
+      <c r="AM36" s="73">
+        <v>0.984891169569587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>18</v>
       </c>
@@ -14713,26 +16011,64 @@
       <c r="O37">
         <v>1</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37" s="49">
         <v>1.5932978913168201</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="47">
         <v>0.70057080392939097</v>
       </c>
-      <c r="U37" t="s">
+      <c r="T37" s="47"/>
+      <c r="U37" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="V37" s="5">
+      <c r="V37" s="49">
         <v>0.26795958800000003</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="47">
         <v>0.86944366500000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z37">
+        <v>-16.353796141624901</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD37">
+        <v>1.5527721400229999</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH37" s="73">
+        <v>1.6877382207488101</v>
+      </c>
+      <c r="AI37" s="73">
+        <v>0.72150713731789395</v>
+      </c>
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL37" s="73">
+        <v>1.41031006042201</v>
+      </c>
+      <c r="AM37" s="73">
+        <v>0.96416723260741299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
@@ -14769,26 +16105,64 @@
       <c r="O38">
         <v>1</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="49">
         <v>1.7403300349098401</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="47">
         <v>0.78606260514009996</v>
       </c>
-      <c r="U38" t="s">
+      <c r="T38" s="47"/>
+      <c r="U38" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="V38" s="5">
+      <c r="V38" s="49">
         <v>1.4379067210000001</v>
       </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W38" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z38">
+        <v>1.49752401793746</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD38">
+        <v>-0.17678378129460501</v>
+      </c>
+      <c r="AE38">
+        <v>0.83781567656508904</v>
+      </c>
+      <c r="AG38" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH38" s="73">
+        <v>1.3875570104294901</v>
+      </c>
+      <c r="AI38" s="73">
+        <v>0.81013798982926999</v>
+      </c>
+      <c r="AJ38" s="73"/>
+      <c r="AK38" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL38" s="73">
+        <v>2.2936063885094899</v>
+      </c>
+      <c r="AM38" s="73">
+        <v>0.71335928971773299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>22</v>
       </c>
@@ -14825,26 +16199,64 @@
       <c r="O39">
         <v>0.88467379575546501</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="49">
         <v>0.69769736881710498</v>
       </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="U39" t="s">
+      <c r="S39" s="47">
+        <v>1</v>
+      </c>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="V39" s="5">
+      <c r="V39" s="49">
         <v>0.95623175800000004</v>
       </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W39" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z39">
+        <v>1.9737494006129199</v>
+      </c>
+      <c r="AA39">
+        <v>0.95668713295330299</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD39">
+        <v>0.87806197799391805</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH39" s="73">
+        <v>1.5471796596193901</v>
+      </c>
+      <c r="AI39" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="73"/>
+      <c r="AK39" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL39" s="73">
+        <v>0.38196108123149303</v>
+      </c>
+      <c r="AM39" s="73">
+        <v>0.71548119681745204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>28</v>
       </c>
@@ -14881,26 +16293,64 @@
       <c r="O40">
         <v>1</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40" s="49">
         <v>0.66240262246423998</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="47">
         <v>0.80786686239629601</v>
       </c>
-      <c r="U40" t="s">
+      <c r="T40" s="47"/>
+      <c r="U40" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="V40" s="5">
+      <c r="V40" s="49">
         <v>0.82249570699999996</v>
       </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W40" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z40">
+        <v>1.7398598432869401</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD40">
+        <v>1.39007677890939</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH40" s="73">
+        <v>0.806231457150139</v>
+      </c>
+      <c r="AI40" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="73"/>
+      <c r="AK40" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL40" s="73">
+        <v>1.4288831852109101</v>
+      </c>
+      <c r="AM40" s="73">
+        <v>0.71297544809622104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>34</v>
       </c>
@@ -14937,26 +16387,64 @@
       <c r="O41">
         <v>0.93243203122283103</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41" s="49">
         <v>1.48441879396076</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="47">
         <v>0.93030418636225198</v>
       </c>
-      <c r="U41" t="s">
+      <c r="T41" s="47"/>
+      <c r="U41" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="V41" s="5">
+      <c r="V41" s="49">
         <v>0.99817243300000003</v>
       </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W41" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z41">
+        <v>1.4544124071617801</v>
+      </c>
+      <c r="AA41">
+        <v>0.84555757563760503</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD41">
+        <v>3.4418473641002199</v>
+      </c>
+      <c r="AE41">
+        <v>0.80272672641639597</v>
+      </c>
+      <c r="AG41" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH41" s="73">
+        <v>0.44635225419992702</v>
+      </c>
+      <c r="AI41" s="73">
+        <v>0.99976066833831001</v>
+      </c>
+      <c r="AJ41" s="73"/>
+      <c r="AK41" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL41" s="73">
+        <v>1.28326005384147</v>
+      </c>
+      <c r="AM41" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -14993,26 +16481,64 @@
       <c r="O42">
         <v>0.74804439989285698</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42" s="49">
         <v>1.4042539727390999</v>
       </c>
-      <c r="S42">
-        <v>1</v>
-      </c>
-      <c r="U42" t="s">
+      <c r="S42" s="47">
+        <v>1</v>
+      </c>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="V42" s="5">
+      <c r="V42" s="49">
         <v>1.658566974</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="47">
         <v>0.87529230199999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z42">
+        <v>0.85810379716663898</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD42">
+        <v>2.46795688516448</v>
+      </c>
+      <c r="AE42">
+        <v>0.86596476275392997</v>
+      </c>
+      <c r="AG42" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH42" s="73">
+        <v>1.2909130579082699</v>
+      </c>
+      <c r="AI42" s="73">
+        <v>0.84926908321230699</v>
+      </c>
+      <c r="AJ42" s="73"/>
+      <c r="AK42" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL42" s="73">
+        <v>-0.12864574382677901</v>
+      </c>
+      <c r="AM42" s="73">
+        <v>0.80791793479395901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
@@ -15049,26 +16575,64 @@
       <c r="O43">
         <v>0.914381757024603</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="49">
         <v>0.87034529907464298</v>
       </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-      <c r="U43" t="s">
+      <c r="S43" s="47">
+        <v>1</v>
+      </c>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="V43" s="5">
+      <c r="V43" s="49">
         <v>1.365504016</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="47">
         <v>0.87976832999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z43">
+        <v>1.79826124044223</v>
+      </c>
+      <c r="AA43">
+        <v>0.80813830325498104</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD43">
+        <v>0.67749381527173402</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH43" s="73">
+        <v>0.60536165367247996</v>
+      </c>
+      <c r="AI43" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="73"/>
+      <c r="AK43" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL43" s="73">
+        <v>1.59740996399021</v>
+      </c>
+      <c r="AM43" s="73">
+        <v>0.83577595685203199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
@@ -15105,26 +16669,64 @@
       <c r="O44">
         <v>0.80331592278129904</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="Q44" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R44" s="49">
         <v>1.4006859263914899</v>
       </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
-      <c r="U44" t="s">
+      <c r="S44" s="47">
+        <v>1</v>
+      </c>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="V44" s="5">
+      <c r="V44" s="49">
         <v>1.4325804820000001</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="47">
         <v>0.82021329600000004</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z44">
+        <v>0.36001565928503398</v>
+      </c>
+      <c r="AA44">
+        <v>0.80382349791945695</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD44">
+        <v>1.43101282332883</v>
+      </c>
+      <c r="AE44">
+        <v>0.84771082754235405</v>
+      </c>
+      <c r="AG44" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH44" s="73">
+        <v>1.38584560253238</v>
+      </c>
+      <c r="AI44" s="73">
+        <v>0.989381762830567</v>
+      </c>
+      <c r="AJ44" s="73"/>
+      <c r="AK44" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL44" s="73">
+        <v>1.3605387786865399</v>
+      </c>
+      <c r="AM44" s="73">
+        <v>0.75168708995655198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -15161,26 +16763,64 @@
       <c r="O45">
         <v>0.76176616462450997</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45" s="49">
         <v>0.81458469061485395</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="47">
         <v>0.81545803160938102</v>
       </c>
-      <c r="U45" t="s">
+      <c r="T45" s="47"/>
+      <c r="U45" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="V45" s="5">
+      <c r="V45" s="49">
         <v>1.401294743</v>
       </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W45" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z45">
+        <v>0.42838639986365001</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD45">
+        <v>1.76251158493912</v>
+      </c>
+      <c r="AE45">
+        <v>0.87826509609546499</v>
+      </c>
+      <c r="AG45" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH45" s="73">
+        <v>0.80708678839885495</v>
+      </c>
+      <c r="AI45" s="73">
+        <v>0.70846897301807299</v>
+      </c>
+      <c r="AJ45" s="73"/>
+      <c r="AK45" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL45" s="73">
+        <v>0.26765777921549</v>
+      </c>
+      <c r="AM45" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>47</v>
       </c>
@@ -15217,26 +16857,64 @@
       <c r="O46">
         <v>0.75150730773241403</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46" s="49">
         <v>1.52911049795453</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="47">
         <v>0.99689922855173596</v>
       </c>
-      <c r="U46" t="s">
+      <c r="T46" s="47"/>
+      <c r="U46" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V46" s="49">
         <v>1.3192745859999999</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="47">
         <v>0.97311375099999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z46">
+        <v>3.42017700168189</v>
+      </c>
+      <c r="AA46">
+        <v>0.747855311309921</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD46">
+        <v>1.5422379177041201</v>
+      </c>
+      <c r="AE46">
+        <v>0.91737078360879198</v>
+      </c>
+      <c r="AG46" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH46" s="73">
+        <v>0.28640906469875999</v>
+      </c>
+      <c r="AI46" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="73"/>
+      <c r="AK46" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL46" s="73">
+        <v>1.5779279314299699</v>
+      </c>
+      <c r="AM46" s="73">
+        <v>0.98143061985653901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
@@ -15273,26 +16951,64 @@
       <c r="O47">
         <v>1</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R47" s="49">
         <v>0.70856787113963804</v>
       </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="S47" s="47">
+        <v>1</v>
+      </c>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="V47" s="5">
+      <c r="V47" s="49">
         <v>3.1704897939999999</v>
       </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W47" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z47">
+        <v>1.67686409028254</v>
+      </c>
+      <c r="AA47">
+        <v>0.834534859450213</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD47">
+        <v>1.55082767209284</v>
+      </c>
+      <c r="AE47">
+        <v>0.82881449357044201</v>
+      </c>
+      <c r="AG47" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH47" s="73">
+        <v>-0.67964869395412897</v>
+      </c>
+      <c r="AI47" s="73">
+        <v>0.82315819902979703</v>
+      </c>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL47" s="73">
+        <v>1.47794876837539</v>
+      </c>
+      <c r="AM47" s="73">
+        <v>0.91976157142336701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
@@ -15311,17 +17027,49 @@
       <c r="K48">
         <v>1</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q48" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="R48" s="5">
+      <c r="R48" s="49">
         <v>1.5032924300831401</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="47">
         <v>0.99986342202859801</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="47"/>
+      <c r="Y48" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z48">
+        <v>-0.17752443049869501</v>
+      </c>
+      <c r="AA48">
+        <v>0.738493896159237</v>
+      </c>
+      <c r="AG48" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH48" s="73">
+        <v>1.45059263427239</v>
+      </c>
+      <c r="AI48" s="73">
+        <v>0.81508749598849095</v>
+      </c>
+      <c r="AJ48" s="73"/>
+      <c r="AK48" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL48" s="73">
+        <v>1.4590313459663999</v>
+      </c>
+      <c r="AM48" s="73">
+        <v>0.87389245337277399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>53</v>
       </c>
@@ -15340,17 +17088,43 @@
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="Q49" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="R49" s="5">
+      <c r="R49" s="49">
         <v>1.35252543672772</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="47">
         <v>0.78754075044929595</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="47"/>
+      <c r="Y49" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z49">
+        <v>0.820209636637932</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH49" s="73">
+        <v>0.30782636174758299</v>
+      </c>
+      <c r="AI49" s="73">
+        <v>0.79983466111119395</v>
+      </c>
+      <c r="AJ49" s="73"/>
+      <c r="AK49" s="73"/>
+      <c r="AL49" s="73"/>
+      <c r="AM49" s="73"/>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>54</v>
       </c>
@@ -15369,17 +17143,43 @@
       <c r="K50">
         <v>0.81728436062086995</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q50" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="R50" s="5">
+      <c r="R50" s="49">
         <v>1.51073386211962</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="47">
         <v>0.82151623354138903</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="47"/>
+      <c r="Y50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z50">
+        <v>-0.79320730100210401</v>
+      </c>
+      <c r="AA50">
+        <v>0.94700667616770096</v>
+      </c>
+      <c r="AG50" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH50" s="73">
+        <v>1.92322362391697</v>
+      </c>
+      <c r="AI50" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="73"/>
+      <c r="AK50" s="73"/>
+      <c r="AL50" s="73"/>
+      <c r="AM50" s="73"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>56</v>
       </c>
@@ -15398,17 +17198,65 @@
       <c r="K51">
         <v>1</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="Q51" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="R51" s="5">
+      <c r="R51" s="49">
         <v>1.4450404937860299</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="47">
         <v>0.83522126422185805</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="47"/>
+      <c r="Y51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z51">
+        <v>1.9617834975502699</v>
+      </c>
+      <c r="AA51">
+        <v>0.991488807935204</v>
+      </c>
+      <c r="AG51" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH51" s="73">
+        <v>0.95655820158858096</v>
+      </c>
+      <c r="AI51" s="73">
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="73"/>
+      <c r="AK51" s="73"/>
+      <c r="AL51" s="73"/>
+      <c r="AM51" s="73"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="Q52" s="47"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="49"/>
+      <c r="W52" s="47"/>
+      <c r="AG52" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH52" s="73">
+        <v>1.8326184380930199</v>
+      </c>
+      <c r="AI52" s="73">
+        <v>0.90734295399220299</v>
+      </c>
+      <c r="AJ52" s="73"/>
+      <c r="AK52" s="73"/>
+      <c r="AL52" s="73"/>
+      <c r="AM52" s="73"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
         <f>COUNTIFS(B2:B51,"&gt;=1.2",B2:B51,"&lt;=1.8")</f>
         <v>23</v>
@@ -15425,19 +17273,36 @@
         <f>COUNTIFS(N2:N51,"&gt;=1.2",N2:N51,"&lt;=1.8")</f>
         <v>10</v>
       </c>
-      <c r="R53" s="5">
+      <c r="Q53" s="47"/>
+      <c r="R53" s="49">
         <f>COUNTIFS(R2:R51,"&gt;=1.2",R2:R51,"&lt;=1.8")</f>
         <v>26</v>
       </c>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5">
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="49"/>
+      <c r="V53" s="49">
         <f>COUNTIFS(V2:V51,"&gt;=1.2",V2:V51,"&lt;=1.8")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W53" s="47"/>
+      <c r="Z53">
+        <f>COUNTIFS(Z2:Z51,"&gt;=1.2",Z2:Z51,"&lt;=1.8")</f>
+        <v>20</v>
+      </c>
+      <c r="AD53">
+        <f>COUNTIFS(AD2:AD51,"&gt;=1.2",AD2:AD51,"&lt;=1.8")</f>
+        <v>16</v>
+      </c>
+      <c r="AG53" s="73"/>
+      <c r="AH53" s="73"/>
+      <c r="AI53" s="73"/>
+      <c r="AJ53" s="73"/>
+      <c r="AK53" s="73"/>
+      <c r="AL53" s="73"/>
+      <c r="AM53" s="73"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B54" s="5">
         <f>(B53*100)/46</f>
         <v>50</v>
@@ -15454,19 +17319,34 @@
         <f>(N53*100)/32</f>
         <v>31.25</v>
       </c>
-      <c r="R54" s="5">
+      <c r="Q54" s="47"/>
+      <c r="R54" s="49">
         <f>(R53*100)/46</f>
         <v>56.521739130434781</v>
       </c>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5">
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49">
         <f>(V53*100)/32</f>
         <v>62.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W54" s="47"/>
+      <c r="AG54" s="73"/>
+      <c r="AH54" s="73">
+        <f>COUNTIFS(AH1:AH52,"&gt;=1.2",AH1:AH52,"&lt;=1.8")</f>
+        <v>22</v>
+      </c>
+      <c r="AI54" s="73"/>
+      <c r="AJ54" s="73"/>
+      <c r="AK54" s="73"/>
+      <c r="AL54" s="73">
+        <f>COUNTIFS(AL1:AL48,"&gt;=1.2",AL1:AL48,"&lt;=1.8")</f>
+        <v>25</v>
+      </c>
+      <c r="AM54" s="73"/>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
         <v>3.5</v>
       </c>
